--- a/RisposteLLMEvoluzione.xlsx
+++ b/RisposteLLMEvoluzione.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c038f843566970da/Documenti/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UNIVERSITA\Responses-Evoluzione\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="622" documentId="8_{99CD18D8-3271-4CE5-B46C-C09A354B6E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16D72F6F-AFC1-43CC-85D0-8F28B2D048EF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F491583-026F-41B8-979E-109E13158DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9264A4EA-3C53-4FF9-84D2-202A8C3D6F72}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9264A4EA-3C53-4FF9-84D2-202A8C3D6F72}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="78">
   <si>
     <t>Risposta-timestamp</t>
   </si>
@@ -47,6 +47,9 @@
     <t>LLM</t>
   </si>
   <si>
+    <t>Versione</t>
+  </si>
+  <si>
     <t>Accettazione di file Python</t>
   </si>
   <si>
@@ -83,6 +86,12 @@
     <t>Risposta-22-12-20-30</t>
   </si>
   <si>
+    <t>ChatGpt</t>
+  </si>
+  <si>
+    <t>4o</t>
+  </si>
+  <si>
     <t>Si</t>
   </si>
   <si>
@@ -95,12 +104,30 @@
     <t>Gemini</t>
   </si>
   <si>
+    <t>1.5 flash</t>
+  </si>
+  <si>
     <t>Risposta-03-01-16-30</t>
   </si>
   <si>
+    <t>Cloude</t>
+  </si>
+  <si>
+    <t>3.5 sonnet</t>
+  </si>
+  <si>
+    <t>numero di artefatti generati : artefatti necessari (7)</t>
+  </si>
+  <si>
     <t>Risposta-03-01-17-15</t>
   </si>
   <si>
+    <t>Mistral AI</t>
+  </si>
+  <si>
+    <t>vedi template in base agli artefatti necessari (esclusi databricks e requirements)</t>
+  </si>
+  <si>
     <t>Risposta-03-01-15-38</t>
   </si>
   <si>
@@ -116,6 +143,9 @@
     <t>Risposta-04-01-18-35</t>
   </si>
   <si>
+    <t>2.0 flash</t>
+  </si>
+  <si>
     <t>Risposta-05-01-18-54</t>
   </si>
   <si>
@@ -143,9 +173,6 @@
     <t>Risposta-08-01-11-46</t>
   </si>
   <si>
-    <t>Mistral AI</t>
-  </si>
-  <si>
     <t>Risposta-08-01-12-15</t>
   </si>
   <si>
@@ -155,12 +182,6 @@
     <t>Risposta-08-01-13-28</t>
   </si>
   <si>
-    <t>numero di artefatti generati : artefatti necessari (7)</t>
-  </si>
-  <si>
-    <t>vedi template in base agli artefatti necessari (esclusi databricks e requirements)</t>
-  </si>
-  <si>
     <t>Risposta-09-01-12-16</t>
   </si>
   <si>
@@ -176,9 +197,6 @@
     <t>Risposta-09-01-23-00</t>
   </si>
   <si>
-    <t>screen di eventuali errori da inserire in ogni cartella delle risposte?</t>
-  </si>
-  <si>
     <t>Risposta-10-01-09-41</t>
   </si>
   <si>
@@ -203,19 +221,16 @@
     <t>Risposta-10-01-12-44</t>
   </si>
   <si>
-    <t>secondo me si possono ricavare, tipicamente sono evidenti dall'ide o a runtime</t>
+    <t>2.0 advanced</t>
   </si>
   <si>
     <t>Risposta-10-01-14-46</t>
   </si>
   <si>
-    <t>si ma li inseriamo nel repository all'interno di ogni risposta per una specie di documentazione?</t>
-  </si>
-  <si>
     <t>Risposta-10-01-15-28</t>
   </si>
   <si>
-    <t>secondo me è una cosa in più, ci porterebbe via tempo</t>
+    <t>1.5 pro</t>
   </si>
   <si>
     <t>Risposta-11-01-16-09</t>
@@ -224,7 +239,7 @@
     <t>Risposta-11-01-18-04</t>
   </si>
   <si>
-    <t xml:space="preserve">va benee </t>
+    <t>Risposta-11-01-18-10</t>
   </si>
   <si>
     <t>Risposta-11-01-18-41</t>
@@ -239,9 +254,6 @@
     <t>Risposta-11-01-20-24</t>
   </si>
   <si>
-    <t>Risposta-11-01-18-10</t>
-  </si>
-  <si>
     <t>Risposta-12-01-13-27</t>
   </si>
   <si>
@@ -254,61 +266,13 @@
     <t>Risposta-12-01-14-50</t>
   </si>
   <si>
-    <t>stiamo valutando anche custom metrics.py nei 7 artefatti</t>
-  </si>
-  <si>
-    <t>io ne sto tenendo conto, altrimenti sarebbe 6/6 la maggior parte delle volte</t>
-  </si>
-  <si>
-    <t>valutiamo bene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eh anche io la sto considerando, ma è una classe vuota, bisogna vedere se l'esempio di classificazione parte anche senza </t>
-  </si>
-  <si>
-    <t>credo che parta anche perché nel caso la crea vuota</t>
-  </si>
-  <si>
-    <t>esatto, quindi in teoria sono 6</t>
-  </si>
-  <si>
-    <t>ho provato giusto per scrupolo, parte anche senza custom metrics.py e se non la trova la crea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">si immaginavo, vogliamo fare su base 6? </t>
-  </si>
-  <si>
     <t>Risposta-12-01-22-55</t>
   </si>
   <si>
     <t>Risposta-13-01-10-10</t>
   </si>
   <si>
-    <t>Versione</t>
-  </si>
-  <si>
-    <t>4o</t>
-  </si>
-  <si>
-    <t>ChatGpt</t>
-  </si>
-  <si>
-    <t>Cloude</t>
-  </si>
-  <si>
-    <t>3.5 sonnet</t>
-  </si>
-  <si>
-    <t>1.5 flash</t>
-  </si>
-  <si>
-    <t>2.0 flash</t>
-  </si>
-  <si>
-    <t>2.0 advanced</t>
-  </si>
-  <si>
-    <t>1.5 pro</t>
+    <t>Risposta-13-01-15-29</t>
   </si>
 </sst>
 </file>
@@ -379,6 +343,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -698,26 +666,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FD4EDAF-BAE6-4442-AF26-B7C55BA1169A}">
-  <dimension ref="A1:M50"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="29.5546875" customWidth="1"/>
-    <col min="2" max="3" width="34.5546875" customWidth="1"/>
-    <col min="4" max="4" width="27.5546875" customWidth="1"/>
-    <col min="5" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="53.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="39.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="39.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.53515625" customWidth="1"/>
+    <col min="2" max="3" width="34.53515625" customWidth="1"/>
+    <col min="4" max="4" width="27.53515625" customWidth="1"/>
+    <col min="5" max="6" width="13.3828125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.3046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.69140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="53.15234375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="39.15234375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="39.15234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -725,36 +693,36 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="3">
         <f>5/7</f>
@@ -765,27 +733,27 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <f>5/7</f>
@@ -802,21 +770,21 @@
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -832,21 +800,21 @@
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <f>3/7</f>
@@ -863,18 +831,18 @@
         <v>0</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <f>5/7</f>
@@ -891,18 +859,18 @@
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" s="3">
         <f>5/7</f>
@@ -920,15 +888,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8">
         <f>5/7</f>
@@ -945,18 +913,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -972,15 +940,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10">
         <f>5/7</f>
@@ -997,18 +965,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11">
         <f>4/7</f>
@@ -1025,15 +993,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12">
         <f>5/7</f>
@@ -1050,43 +1018,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <f>5/7</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="F13">
+        <f>6/7</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
         <v>10</v>
       </c>
-      <c r="E13">
-        <f>5/7</f>
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="F13">
-        <f>6/7</f>
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14">
         <f>4/7</f>
@@ -1103,18 +1071,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E15">
         <f>5/7</f>
@@ -1131,18 +1099,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E16">
         <f>5/7</f>
@@ -1159,15 +1127,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17">
         <f>4/7</f>
@@ -1184,15 +1152,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18">
         <f>4/7</f>
@@ -1209,18 +1177,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E19">
         <f>5/7</f>
@@ -1237,15 +1205,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E20">
         <f>6/7</f>
@@ -1262,18 +1230,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E21">
         <f>4/7</f>
@@ -1290,40 +1258,40 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22">
+        <f>5/7</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="F22">
+        <f>6/7</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
         <v>10</v>
       </c>
-      <c r="E22">
-        <f>5/7</f>
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="F22">
-        <f>6/7</f>
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" t="s">
-        <v>9</v>
-      </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23">
         <f>2/7</f>
@@ -1340,18 +1308,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24">
         <f>3/7</f>
@@ -1368,18 +1336,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25">
         <f>3/7</f>
@@ -1396,18 +1364,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E26">
         <f>5/7</f>
@@ -1421,18 +1389,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="D27" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E27">
         <f>5/7</f>
@@ -1446,15 +1414,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E28">
         <f>6/7</f>
@@ -1470,22 +1438,19 @@
       <c r="H28">
         <v>2</v>
       </c>
-      <c r="M28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C29" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1500,19 +1465,17 @@
       <c r="H29">
         <v>0</v>
       </c>
-      <c r="M29" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M29" s="4"/>
+    </row>
+    <row r="30" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30">
         <f>1/7</f>
@@ -1528,22 +1491,19 @@
       <c r="H30">
         <v>0</v>
       </c>
-      <c r="M30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B31" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E31">
         <f>4/7</f>
@@ -1559,22 +1519,19 @@
       <c r="H31">
         <v>3</v>
       </c>
-      <c r="M31" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="C32" t="s">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="D32" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E32">
         <f>5/7</f>
@@ -1590,19 +1547,16 @@
       <c r="H32">
         <v>0</v>
       </c>
-      <c r="M32" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:8" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D33" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E33">
         <f>5/7</f>
@@ -1618,22 +1572,19 @@
       <c r="H33">
         <v>5</v>
       </c>
-      <c r="M33" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:8" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B34" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="C34" t="s">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E34">
         <f>6/7</f>
@@ -1647,18 +1598,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C35" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" s="3">
         <f>6/7</f>
@@ -1674,19 +1625,16 @@
       <c r="H35">
         <v>0</v>
       </c>
-      <c r="M35" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:8" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>55</v>
-      </c>
-      <c r="B36" t="s">
-        <v>34</v>
-      </c>
-      <c r="D36" t="s">
-        <v>49</v>
       </c>
       <c r="E36">
         <f>4/7</f>
@@ -1699,22 +1647,19 @@
       <c r="H36">
         <v>5</v>
       </c>
-      <c r="M36" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:8" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C37" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37">
         <f>4/7</f>
@@ -1730,19 +1675,16 @@
       <c r="H37">
         <v>0</v>
       </c>
-      <c r="M37" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:8" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D38" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E38">
         <f>6/7</f>
@@ -1759,15 +1701,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D39" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E39">
         <f>5/7</f>
@@ -1783,19 +1725,16 @@
       <c r="H39">
         <v>6</v>
       </c>
-      <c r="M39" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:8" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>66</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D40" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E40">
         <f>6/7</f>
@@ -1811,19 +1750,16 @@
       <c r="H40">
         <v>0</v>
       </c>
-      <c r="M40" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:8" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D41" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E41">
         <f>6/7</f>
@@ -1839,19 +1775,16 @@
       <c r="H41">
         <v>1</v>
       </c>
-      <c r="M41" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:8" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D42" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E42">
         <f>6/7</f>
@@ -1867,22 +1800,19 @@
       <c r="H42">
         <v>0</v>
       </c>
-      <c r="M42" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:8" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B43" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="C43" t="s">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="D43" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E43">
         <f>4/7</f>
@@ -1899,18 +1829,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B44" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="C44" t="s">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="D44" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E44">
         <f>5/7</f>
@@ -1927,18 +1857,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B45" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="C45" t="s">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="D45" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E45">
         <f>6/7</f>
@@ -1955,18 +1885,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B46" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="C46" t="s">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="D46" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E46">
         <f>3/7</f>
@@ -1983,18 +1913,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B47" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="C47" t="s">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="D47" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E47">
         <f>6/7</f>
@@ -2011,18 +1941,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B48" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="C48" t="s">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E48">
         <f>6/7</f>
@@ -2039,18 +1969,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B49" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="C49" t="s">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="D49" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E49">
         <f>5/7</f>
@@ -2067,18 +1997,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B50" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="C50" t="s">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="D50" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E50">
         <f>4/7</f>
@@ -2092,6 +2022,34 @@
         <v>3</v>
       </c>
       <c r="H50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" t="s">
+        <v>24</v>
+      </c>
+      <c r="D51" t="s">
+        <v>55</v>
+      </c>
+      <c r="E51">
+        <f>4/7</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="F51">
+        <f>5/7</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="G51">
+        <v>3</v>
+      </c>
+      <c r="H51">
         <v>0</v>
       </c>
     </row>
